--- a/com.org.api/FSPAquisitionPartyData/FSPAquisitionData.xlsx
+++ b/com.org.api/FSPAquisitionPartyData/FSPAquisitionData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\e568414\eclipse-workspace\com.org.api\FSPAquisitionPartyData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mzamo\git\com.api\com.org.api\com.org.api\FSPAquisitionPartyData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FFB4E02-B047-4336-954B-8182938D4E40}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46AB99A5-61DE-4D70-8519-D809250F5197}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1596" windowWidth="22716" windowHeight="10764" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GET" sheetId="1" r:id="rId1"/>
@@ -26,19 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>http://api.openweathermap.org/data/2.5/weather?q=London&amp;appid=8c8d3215dea188a4db1f105e201e5387</t>
-  </si>
-  <si>
-    <t>http://api.openweathermap.org/data/2.5/weather?q=boston&amp;appid=8c8d3215dea188a4db1f105e201e5387</t>
-  </si>
-  <si>
-    <t>http://api.openweathermap.org/data/2.5/weather?q=pretoria&amp;appid=8c8d3215dea188a4db1f105e201e5387</t>
-  </si>
-  <si>
-    <t>http://api.openweathermap.org/data/2.5/weather?q=sydney&amp;appid=8c8d3215dea188a4db1f105e201e5387</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>http://glcapi-ws-ppe.sanlam.co.za/fsp/acq/sh/party/api/natureofincomecodes</t>
   </si>
@@ -47,6 +35,12 @@
   </si>
   <si>
     <t>http://glcapi-ws-ppe.sanlam.co.za/fsp/acq/sh/party/api/natureofincomecodes/59</t>
+  </si>
+  <si>
+    <t>https://sipnetazureservice.azurewebsites.net/users/</t>
+  </si>
+  <si>
+    <t>https://sipnetazureservice.azurewebsites.net/delivery/</t>
   </si>
 </sst>
 </file>
@@ -377,28 +371,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="79.28515625" customWidth="1"/>
+    <col min="1" max="1" width="79.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -416,42 +410,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59D3BA1A-C817-45F2-9963-A5E34D98D923}">
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="98.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="98.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1"/>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1" xr:uid="{57046297-EF05-4F0A-BEF9-FE8C376FA13E}"/>
-    <hyperlink ref="A4" r:id="rId2" xr:uid="{04D2B65B-E010-48EC-AA2A-AFA672F2C79D}"/>
-    <hyperlink ref="A1" r:id="rId3" xr:uid="{37E959A0-55CD-4078-A4A8-B65041F9A8DF}"/>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{37E959A0-55CD-4078-A4A8-B65041F9A8DF}"/>
+    <hyperlink ref="A2" r:id="rId2" xr:uid="{D7FC75EA-00BF-4946-9DB4-CC6B3FFBB59F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
 </worksheet>
 </file>